--- a/experiment_data/peritonitis_t_template.xlsx
+++ b/experiment_data/peritonitis_t_template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t xml:space="preserve">channel</t>
   </si>
@@ -134,100 +134,1268 @@
     <t xml:space="preserve">permutations</t>
   </si>
   <si>
-    <t xml:space="preserve">FSC\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSC\s*-*H$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSC\s*-*W$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSC\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSC\s*-*H$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSC\s*-*W$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexa\s*-*Fluor\s*-*488\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexa\s*-*Fluor\s*-*647\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APC\s*-*Cy7\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexa\s*-*Fluor\s*-*405\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmCyan\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV605\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV711\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE\s*-*CF594\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7\s*-*AAD\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE\s*-*Cy5\s*-*\.*5\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE\s*-*Cy\s*-*7\s*-*A$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXCR\s*-*3$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD\s*-*161$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD\s*-*3$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCR\s*-*7$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L\/*D$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead,LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA\s*-*7\.*-*2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD\s*-*8$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v\s*d[elta]*\s*-*2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD\s*-*45\s*-*RA$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN\s*-*GD$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD\s*-*4$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD\s*-*27$</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FSC\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FSC\s*-*H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FSC\s*-*W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SSC\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SSC\s*-*H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SSC\s*-*W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Alexa\s*-*Fluor\s*-*488\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Alexa\s*-*Fluor\s*-*647\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">APC\s*-*Cy7\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Alexa\s*-*Fluor\s*-*405\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AmCyan\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BV605\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BV711\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PE\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PE\s*-*CF594\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7\s*-*AAD\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PE\s*-*Cy5\s*-*\.*5\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PE\s*-*Cy\s*-*7\s*-*A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CXCR\s*-*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCR3 FITC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CD\s*-*161</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CD161 APC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CD\s*-*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CD3 APC Fire 700,CD3 APCFire750,CD3 Fire750</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CCR\s*-*7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR7 BV421,CCR7 rat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L\/*D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead,LD,L/D-CD19-CD14,CD14_19_LD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VA\s*-*7\.*-*2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Va7_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CD\s*-*8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">v\s*d[elta]*\s*-*2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CD\s*-*45\s*-*RA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CD45RA PE Dazz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PAN\s*-*GD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan gd PE-Cy5,Pan gd PECy5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CD\s*-*4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CD\s*-*27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -237,7 +1405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -265,6 +1433,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,7 +1483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,6 +1494,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -345,7 +1527,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
   </cols>
@@ -508,10 +1690,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.79"/>
@@ -536,7 +1718,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -544,7 +1726,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -552,7 +1734,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -560,7 +1742,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -568,7 +1750,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -576,111 +1758,111 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -688,69 +1870,79 @@
       <c r="A21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="0"/>
+      <c r="D22" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="0"/>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>59</v>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="0"/>
+      <c r="D24" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="0"/>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>63</v>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="0"/>
@@ -759,42 +1951,48 @@
       <c r="A28" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_data/peritonitis_t_template.xlsx
+++ b/experiment_data/peritonitis_t_template.xlsx
@@ -152,103 +152,103 @@
     <t xml:space="preserve">.*SSC\s*-*W.*$</t>
   </si>
   <si>
-    <t xml:space="preserve">.*Alexa\s*-*Fluor\s*-*488\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*Alexa\s*-*Fluor\s*-*647\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*APC\s*-*Cy7\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*Alexa\s*-*Fluor\s*-*405\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*AmCyan\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*BV605\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*BV711\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*PE\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*PE\s*-*CF594\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*7\s*-*AAD\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*PE\s*-*Cy5\s*-*\.*5\s*-*A.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*PE\s*-*Cy\s*-*7\s*-*A.*$</t>
+    <t xml:space="preserve">.*Alexa\s*-*Fluor\s*-*488\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*Alexa\s*-*Fluor\s*-*647\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*APC\s*-*Cy7\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*Alexa\s*-*Fluor\s*-*405\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*AmCyan\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*BV605\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*BV711\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*PE\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*PE\s*-*CF594\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*7\s*-*AAD\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*PE\s*-*Cy5\s*-*\.*5\s*-*A.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*PE\s*-*Cy\s*-*7\s*-*A.*</t>
   </si>
   <si>
     <t xml:space="preserve">.*time.*$</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CXCR\s*-*3.*$</t>
+    <t xml:space="preserve">.*CXCR\s*-*3.*</t>
   </si>
   <si>
     <t xml:space="preserve">CXCR3 FITC</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CD\s*-*161.*$</t>
+    <t xml:space="preserve">.*CD\s*-*161.*</t>
   </si>
   <si>
     <t xml:space="preserve">CD161 APC</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CD\s*-*3.*$</t>
+    <t xml:space="preserve">.*CD\s*-*3.*</t>
   </si>
   <si>
     <t xml:space="preserve">CD3 APC Fire 700,CD3 APCFire750,CD3 Fire750</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CCR\s*-*7.*$</t>
+    <t xml:space="preserve">.*CCR\s*-*7.*</t>
   </si>
   <si>
     <t xml:space="preserve">CCR7 BV421,CCR7 rat</t>
   </si>
   <si>
-    <t xml:space="preserve">.*L\/*D.*$</t>
+    <t xml:space="preserve">.*L\/*D.*</t>
   </si>
   <si>
     <t xml:space="preserve">Dead,LD,L/D-CD19-CD14,CD14_19_LD,Zombie Aqua</t>
   </si>
   <si>
-    <t xml:space="preserve">.*VA\s*-*7\.*-*2.*$</t>
+    <t xml:space="preserve">.*VA\s*-*7\.*-*2.*</t>
   </si>
   <si>
     <t xml:space="preserve">Va7_2</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CD\s*-*8.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*v\s*d[elta]*\s*-*2.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*CD\s*-*45\s*-*RA.*$</t>
+    <t xml:space="preserve">.*CD\s*-*8.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*v\s*d[elta]*\s*-*2.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*CD\s*-*45\s*-*RA.*</t>
   </si>
   <si>
     <t xml:space="preserve">CD45RA PE Dazz</t>
   </si>
   <si>
-    <t xml:space="preserve">.*PAN\s*-*GD.*$</t>
+    <t xml:space="preserve">.*PAN\s*-*GD.*</t>
   </si>
   <si>
     <t xml:space="preserve">Pan gd PE-Cy5,Pan gd PECy5</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CD\s*-*4.*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.*CD\s*-*27.*$</t>
+    <t xml:space="preserve">.*CD\s*-*4\s.*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.*CD\s*-*27.*</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
   </cols>
@@ -533,10 +533,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.79"/>

--- a/experiment_data/peritonitis_t_template.xlsx
+++ b/experiment_data/peritonitis_t_template.xlsx
@@ -245,7 +245,7 @@
     <t xml:space="preserve">Pan gd PE-Cy5,Pan gd PECy5</t>
   </si>
   <si>
-    <t xml:space="preserve">.*CD\s*-*4\s.*$</t>
+    <t xml:space="preserve">.*CD\s*-*4$</t>
   </si>
   <si>
     <t xml:space="preserve">.*CD\s*-*27.*</t>
@@ -370,7 +370,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
   </cols>
@@ -533,10 +533,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.79"/>
